--- a/data/trans_bre/P16A_n_R3-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P16A_n_R3-Clase-trans_bre.xlsx
@@ -649,7 +649,7 @@
         <v>-0.03853929737503468</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.7433918677800089</v>
+        <v>0.7433918677800091</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.590154613937924</v>
+        <v>-1.573157313556288</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.7319008185006445</v>
+        <v>-0.6388348749169657</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.933750727017508</v>
+        <v>-1.803902594171801</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-0.09573729503101949</v>
+        <v>0.3818984890064767</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.7938828349788386</v>
+        <v>-0.7435833617105564</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.5809389461311625</v>
+        <v>-0.6650715782431398</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.765807881196521</v>
+        <v>-0.8210764298966254</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.04823412443678836</v>
+        <v>0.105250073729213</v>
       </c>
     </row>
     <row r="6">
@@ -692,26 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.338205347950171</v>
+        <v>2.660453986049522</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>3.695007321420051</v>
+        <v>3.994520718368656</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.893946413973402</v>
+        <v>1.713706841104822</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>4.120615678475782</v>
+        <v>4.443343770720707</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>3.182147723432684</v>
-      </c>
-      <c r="H6" s="6" t="inlineStr"/>
+        <v>3.367046905932263</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>14.14846051613403</v>
+      </c>
       <c r="I6" s="6" t="n">
-        <v>3.33917368886124</v>
+        <v>2.571237551491499</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>2.109909449773339</v>
+        <v>2.470642747412357</v>
       </c>
     </row>
     <row r="7">
@@ -735,7 +737,7 @@
         <v>1.365688421067234</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.9411149801558494</v>
+        <v>0.94111498015585</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>-0.2860371532460587</v>
@@ -747,7 +749,7 @@
         <v>4.315319509959621</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.215387598661816</v>
+        <v>0.2153875986618162</v>
       </c>
     </row>
     <row r="8">
@@ -758,24 +760,24 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-1.423003071350623</v>
+        <v>-1.411536115118684</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-2.223064785845676</v>
+        <v>-1.903922518837987</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1478060474227282</v>
+        <v>0.1914378430745255</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-1.547239640307877</v>
+        <v>-1.409690602799501</v>
       </c>
       <c r="G8" s="6" t="inlineStr"/>
       <c r="H8" s="6" t="n">
-        <v>-0.6910567923925431</v>
+        <v>-0.6615960871977848</v>
       </c>
       <c r="I8" s="6" t="inlineStr"/>
       <c r="J8" s="6" t="n">
-        <v>-0.2623644859321028</v>
+        <v>-0.2583250040209619</v>
       </c>
     </row>
     <row r="9">
@@ -786,24 +788,24 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.775445524305683</v>
+        <v>1.02364822557537</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>2.619383013384929</v>
+        <v>2.616111240689991</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>3.023287414353347</v>
+        <v>3.056815739261502</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>3.249969097989606</v>
+        <v>3.376773025737322</v>
       </c>
       <c r="G9" s="6" t="inlineStr"/>
       <c r="H9" s="6" t="n">
-        <v>3.008252099051524</v>
+        <v>3.054998134570051</v>
       </c>
       <c r="I9" s="6" t="inlineStr"/>
       <c r="J9" s="6" t="n">
-        <v>1.019016114179968</v>
+        <v>1.106025752232576</v>
       </c>
     </row>
     <row r="10">
@@ -839,7 +841,7 @@
         <v>4.084315994650844</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.908178863239397</v>
+        <v>0.9081788632393972</v>
       </c>
     </row>
     <row r="11">
@@ -850,28 +852,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.769853357303911</v>
+        <v>-0.6474841835829261</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-2.044170154457902</v>
+        <v>-2.007505136726515</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1.311588384049131</v>
+        <v>1.367876992488681</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1.682053616900324</v>
+        <v>1.726766138460415</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.5852958014870733</v>
+        <v>-0.5231069354352041</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.5344486202666794</v>
+        <v>-0.513934226382699</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4890019989760335</v>
+        <v>0.4891098839497815</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.1641024491052151</v>
+        <v>0.2195360349478634</v>
       </c>
     </row>
     <row r="12">
@@ -882,28 +884,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>4.764407086093312</v>
+        <v>5.0328966738451</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.540024582105248</v>
+        <v>3.500234374509091</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>9.350340644629016</v>
+        <v>9.00921617482412</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>10.17929299102936</v>
+        <v>10.10114937597505</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>6.299963374883225</v>
+        <v>5.428309161085412</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>1.798015198832595</v>
+        <v>1.93852270082026</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>17.48236381617872</v>
+        <v>16.737227195159</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>1.90026163027709</v>
+        <v>1.979469493642894</v>
       </c>
     </row>
     <row r="13">
@@ -950,28 +952,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-0.8413377061093874</v>
+        <v>-0.5645944919956702</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2118778356183723</v>
+        <v>0.2055993012854735</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-0.1483125302509396</v>
+        <v>-0.1649693805199899</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-1.397644662910644</v>
+        <v>-1.405973621629268</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.397185150437909</v>
+        <v>-0.2803010285123013</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.04974633127858521</v>
+        <v>0.04940049432426649</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.1228947677382254</v>
+        <v>-0.1156830551759691</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.2085260207444522</v>
+        <v>-0.2116634922587089</v>
       </c>
     </row>
     <row r="15">
@@ -982,28 +984,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>1.771522886617795</v>
+        <v>1.940857122624607</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>3.205580711385615</v>
+        <v>3.280672786507125</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>2.727670175193119</v>
+        <v>2.890349685746456</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>2.032324161456924</v>
+        <v>2.079765890421577</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.246027972252614</v>
+        <v>1.487405419529797</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>2.559506540286605</v>
+        <v>2.565016019490626</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.911523796524831</v>
+        <v>2.310909944681315</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.4201337074805946</v>
+        <v>0.43395058951029</v>
       </c>
     </row>
     <row r="16">
@@ -1027,7 +1029,7 @@
         <v>2.594305800487823</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>9.865022658271688</v>
+        <v>9.865022658271689</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>-0.1254910528245023</v>
@@ -1039,7 +1041,7 @@
         <v>0.8231640850556815</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>1.958220899171589</v>
+        <v>1.95822089917159</v>
       </c>
     </row>
     <row r="17">
@@ -1050,28 +1052,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-2.371726150253461</v>
+        <v>-2.269238573681085</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>1.970536749695907</v>
+        <v>2.206031881479768</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1827100517525961</v>
+        <v>0.5794124896762078</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>7.364133314402947</v>
+        <v>7.523391806153098</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.6952249569831974</v>
+        <v>-0.665873583625693</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5696558061400893</v>
+        <v>0.6734325152998404</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.03161883134665833</v>
+        <v>0.1207808393692658</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>1.11966794146304</v>
+        <v>1.148675073624624</v>
       </c>
     </row>
     <row r="18">
@@ -1082,28 +1084,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1.374423768039341</v>
+        <v>1.545683263878977</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>6.428109003709995</v>
+        <v>6.422492972498834</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>4.706123956006761</v>
+        <v>4.91956692275304</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>12.2021840643627</v>
+        <v>12.35531336414392</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1.171478967603054</v>
+        <v>1.290072824401854</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>6.018918631141443</v>
+        <v>6.576142475699573</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>2.068595446481442</v>
+        <v>2.241789313275367</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>3.14368318893359</v>
+        <v>3.087044536503349</v>
       </c>
     </row>
     <row r="19">
@@ -1143,7 +1145,7 @@
         <v>13.31344864842871</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>7.232670009840958</v>
+        <v>7.23267000984096</v>
       </c>
     </row>
     <row r="20">
@@ -1154,22 +1156,22 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>2.790917859428165</v>
+        <v>2.838894454885482</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>5.670309296811974</v>
+        <v>5.682399540826124</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>3.952784236846696</v>
+        <v>3.764988588180699</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>8.505020966701819</v>
+        <v>8.724294167196216</v>
       </c>
       <c r="G20" s="6" t="inlineStr"/>
       <c r="H20" s="6" t="inlineStr"/>
       <c r="I20" s="6" t="inlineStr"/>
       <c r="J20" s="6" t="n">
-        <v>2.25755463238475</v>
+        <v>2.767542920562226</v>
       </c>
     </row>
     <row r="21">
@@ -1180,22 +1182,22 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>4.894124089614547</v>
+        <v>5.014903593783205</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>8.863871800743439</v>
+        <v>8.941079538467729</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>7.30960077241437</v>
+        <v>7.290035089079905</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>13.05383624593853</v>
+        <v>13.13999818862239</v>
       </c>
       <c r="G21" s="6" t="inlineStr"/>
       <c r="H21" s="6" t="inlineStr"/>
       <c r="I21" s="6" t="inlineStr"/>
       <c r="J21" s="6" t="n">
-        <v>20.76328792410135</v>
+        <v>19.30954883954444</v>
       </c>
     </row>
     <row r="22">
@@ -1219,7 +1221,7 @@
         <v>2.676565774196313</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>4.924544290554445</v>
+        <v>4.924544290554446</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.7384873551723755</v>
@@ -1242,28 +1244,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.3976775302027851</v>
+        <v>0.4285036719274734</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>2.248020161851184</v>
+        <v>2.288680430530216</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1.862081477314955</v>
+        <v>1.878064387759487</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3.99410840733613</v>
+        <v>4.00386529480546</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.2033993195294994</v>
+        <v>0.235362541113201</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9689761712751186</v>
+        <v>1.02271438235298</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9079121139670312</v>
+        <v>0.9508802017963284</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>0.73283467065295</v>
+        <v>0.7567975232282509</v>
       </c>
     </row>
     <row r="24">
@@ -1274,28 +1276,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>1.799608109318332</v>
+        <v>1.789957714330954</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>4.098900515369119</v>
+        <v>4.102986986769208</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>3.47961386199267</v>
+        <v>3.594977492356395</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>5.900055102966192</v>
+        <v>5.970008659079651</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>1.536286654708056</v>
+        <v>1.4504141980174</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>2.749682132663643</v>
+        <v>2.841349843009328</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>2.436039034885737</v>
+        <v>2.65347539584656</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>1.343708932724347</v>
+        <v>1.390923295533425</v>
       </c>
     </row>
     <row r="25">
